--- a/src/initialData/xls/fakeCustomers.xlsx
+++ b/src/initialData/xls/fakeCustomers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="2014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="2039">
   <si>
     <t>firstName</t>
   </si>
@@ -6053,13 +6053,91 @@
   </si>
   <si>
     <t>typepad.com</t>
+  </si>
+  <si>
+    <t>Soyombo</t>
+  </si>
+  <si>
+    <t>Bat-Erdene</t>
+  </si>
+  <si>
+    <t>e11iot.soko@gmail.com</t>
+  </si>
+  <si>
+    <t>https://avatars1.githubusercontent.com/u/40427263?s=460&amp;u=7a120890750e807bae2342c6c6818c74d83286bc&amp;v=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +97699391924</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Ulaanbaatar</t>
+  </si>
+  <si>
+    <t>Anu Ujin</t>
+  </si>
+  <si>
+    <t>Bat-Ulzii</t>
+  </si>
+  <si>
+    <t>soko.e11iot@gmail.com</t>
+  </si>
+  <si>
+    <t>https://avatars3.githubusercontent.com/u/23444147?s=120&amp;v=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +97699491924</t>
+  </si>
+  <si>
+    <t>Bat-Amar</t>
+  </si>
+  <si>
+    <t>Battulga</t>
+  </si>
+  <si>
+    <t>e11iot_soko@ymail.com</t>
+  </si>
+  <si>
+    <t>https://avatars3.githubusercontent.com/u/1748899?s=120&amp;v=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +97699143760</t>
+  </si>
+  <si>
+    <t>Bat-Orshikh</t>
+  </si>
+  <si>
+    <t>Orshikh</t>
+  </si>
+  <si>
+    <t>soymbo89@yahoo.com</t>
+  </si>
+  <si>
+    <t>https://avatars2.githubusercontent.com/u/6879734?s=120&amp;v=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +97699654456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-m-d"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -6069,6 +6147,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -6084,11 +6167,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -6308,7 +6409,7 @@
     <col customWidth="1" min="1" max="1" width="11.88"/>
     <col customWidth="1" min="2" max="2" width="15.25"/>
     <col customWidth="1" min="3" max="3" width="25.13"/>
-    <col customWidth="1" min="4" max="4" width="57.0"/>
+    <col customWidth="1" min="4" max="4" width="90.5"/>
     <col customWidth="1" min="5" max="5" width="5.25"/>
     <col customWidth="1" min="6" max="6" width="11.88"/>
     <col customWidth="1" min="7" max="7" width="14.13"/>
@@ -16925,10 +17026,218 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="201" ht="18.0" customHeight="1"/>
-    <row r="202" ht="18.0" customHeight="1"/>
-    <row r="203" ht="18.0" customHeight="1"/>
-    <row r="204" ht="18.0" customHeight="1"/>
+    <row r="201" ht="18.0" customHeight="1">
+      <c r="A201" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E201" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F201" s="4">
+        <v>32866.0</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="P201" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="Q201" s="2" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="202" ht="18.0" customHeight="1">
+      <c r="A202" s="6" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E202" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F202" s="7">
+        <v>32866.0</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="O202" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="P202" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="Q202" s="2" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="203" ht="18.0" customHeight="1">
+      <c r="A203" s="6" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E203" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F203" s="7">
+        <v>32866.0</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>2033</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="P203" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="Q203" s="2" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="204" ht="18.0" customHeight="1">
+      <c r="A204" s="6" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E204" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F204" s="7">
+        <v>32866.0</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="P204" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="Q204" s="2" t="s">
+        <v>2021</v>
+      </c>
+    </row>
     <row r="205" ht="18.0" customHeight="1"/>
     <row r="206" ht="18.0" customHeight="1"/>
     <row r="207" ht="18.0" customHeight="1"/>
@@ -17727,9 +18036,15 @@
     <row r="1000" ht="18.0" customHeight="1"/>
     <row r="1001" ht="18.0" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D201"/>
+    <hyperlink r:id="rId2" ref="D202"/>
+    <hyperlink r:id="rId3" ref="D203"/>
+    <hyperlink r:id="rId4" ref="D204"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>